--- a/biology/Botanique/Edme_Beguillet/Edme_Beguillet.xlsx
+++ b/biology/Botanique/Edme_Beguillet/Edme_Beguillet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edme Beguillet, né au XVIIIe siècle à Auxonne et mort à Dijon en mai 1786, est un agronome et historien français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Successivement avocat au Parlement de Dijon, conseiller du roi et notaire à Dijon, Beguillet a composé des ouvrages estimés sur l’agriculture, l’économie rurale, l’œnologie, l’histoire, etc., et devint membre correspondant de l’Académie de Dijon.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On compte, parmi ses ouvrages :
 De principiis vegetationis et agriculturæ et de causis triplicis culturaæ in Burgundià disquisitio physica, Divione et Parisiis, 1760, in-8° ;Cette Dissertation a été traduite en français par le frère de l'auteur, sous le titre de Des principes de la Végétation et de l’Agriculture, et imprimée à la fin du second vol. des Variétés littéraires de D'Orbessan.
@@ -559,11 +575,11 @@
 Description générale du duché de Bourgogne, 1775-1785, 7 vol. in-8° ;Écrit en collaboration avec l’abbé Courtépée.
 Manuel du meunier et du charpentier de moulins, ou Abrégé classique du traité de la mouture par économie, rédigé sur les Mémoires de C. Bucquet ; nouv. édit., augm. du Traité pratique de la conservation des grains, Dijon, 1785, in-8° avec fig. (Lire en ligne)La première édition est de 1776.
 Précis analytique du Traité général des grains et de la mouture par économie, Paris, Prault, 1779, in-8° ;
-Histoire civile, ecclésiastique et littéraire de Paris, avec la description de ses plus beaux monuments gravés en taille-douce, par F.-N. Martinet, Dijon, Frantin, 3 volumes in-8°, 55 planches gravées (dont 3 titres-frontispices et 2 frontispices). Seul le premier paru en 1779 est d'Edme Beguillet, les deux derniers parus respectivement en 1780 et 1781 sont de Poncelin (aussi attribué à La Roche-Tilhac). L'ensemble de l'ouvrage a été numérisé par la bibliothèque de l'Institut National de L'Histoire de l'Art[1].
+Histoire civile, ecclésiastique et littéraire de Paris, avec la description de ses plus beaux monuments gravés en taille-douce, par F.-N. Martinet, Dijon, Frantin, 3 volumes in-8°, 55 planches gravées (dont 3 titres-frontispices et 2 frontispices). Seul le premier paru en 1779 est d'Edme Beguillet, les deux derniers parus respectivement en 1780 et 1781 sont de Poncelin (aussi attribué à La Roche-Tilhac). L'ensemble de l'ouvrage a été numérisé par la bibliothèque de l'Institut National de L'Histoire de l'Art.
 Considérations générales sur l’éducation, Dijon, 1781, in-8° ;
 (Edme Béguillet et Jean-Étienne Guettard), Description générale et particulière de la France. Département du Rhône. Gouvernement de Dauphiné. Paris, Ph. D. Pierres, 1782. 2 parties en un volume in folio, une grande vignette gravé par Pauquet d'après Le Barbier et 20 figures gravées d'histoire naturelle sur 10 planches.
 Traité général des subsistances et des grains, 1782, 6 vol. in-8°, 2 vol. in-4° ; nouv. édit. Dijon, 1802, 6 vol. in-8° ;Ouvrage où l’on trouve de bonnes notions pratiques sur les qualités, la culture, les maladies, etc., des grains.
-Beguillet a également fourni plusieurs articles sur l’économie rurale au Supplément à L'Encyclopédie[2]
+Beguillet a également fourni plusieurs articles sur l’économie rurale au Supplément à L'Encyclopédie
 </t>
         </is>
       </c>
